--- a/StructureDefinition-death-obs.xlsx
+++ b/StructureDefinition-death-obs.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/death-obs</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/death-obs</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -457,7 +457,7 @@
     <t>lastClinicalVisit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/last-clinical-visit}
+    <t xml:space="preserve">Extension {http://jembi.org/fhir/hiv-casereporting/StructureDefinition/last-clinical-visit}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-hiv-obs-codes"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-hiv-obs-codes"/&gt;
     &lt;code value="CAUSE-OF-DEATH"/&gt;
     &lt;display value="Cause of death"/&gt;
   &lt;/coding&gt;
@@ -919,7 +919,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-vl-causeofdeath</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-vl-causeofdeath</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1803,7 +1803,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-death-obs.xlsx
+++ b/StructureDefinition-death-obs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T14:29:27+00:00</t>
+    <t>2022-11-30T18:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
